--- a/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_mistral-large-2411.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_4/iteration_4_mistral-large-2411.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GESSI\Projectes\review-emotion-analysis\data\annotations\new_annotation_structure_out\iteration_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC53640B-B13D-4C0D-9435-33DF268C0F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE37AF97-E570-4FF8-86EA-0FE99FB2E41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12645" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="U80" sqref="U80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U101" sqref="U101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8118,6 +8118,9 @@
       <c r="S101">
         <v>0</v>
       </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
